--- a/指標報告書自動化範例檔案/C 學位相關表格.xlsx
+++ b/指標報告書自動化範例檔案/C 學位相關表格.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\指標報告書自動化範例檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2876D20-E292-4D13-B35A-7901EDF7E9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA75B5F-48C7-46C5-8138-38866DC6D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="各科系頒授學位" sheetId="1" r:id="rId1"/>
@@ -1521,8 +1521,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4185,9 +4185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC94C0B-465A-454B-93BD-0BCC78900244}">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
